--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.2152</v>
+        <v>15.05849999999999</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.97999999999999</v>
+        <v>-22.00759999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5275</v>
+        <v>-21.48300000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>15.9033</v>
+        <v>15.96990000000001</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.27110000000001</v>
+        <v>-22.2388</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.84379999999998</v>
+        <v>15.95489999999999</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.18060000000001</v>
+        <v>17.09840000000002</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.317</v>
+        <v>15.6125</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.78430000000001</v>
+        <v>16.06750000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.8761</v>
+        <v>-19.7972</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.1947</v>
+        <v>17.0018</v>
       </c>
     </row>
     <row r="41">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.24660000000002</v>
+        <v>-22.28540000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.51709999999998</v>
+        <v>-21.50739999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.23090000000002</v>
+        <v>16.97390000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1732,12 +1732,12 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.11909999999999</v>
+        <v>16.27839999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.27809999999999</v>
+        <v>-20.38559999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.78169999999999</v>
+        <v>-19.87589999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.1035</v>
+        <v>16.07929999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.3941</v>
+        <v>16.30380000000001</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.22349999999999</v>
+        <v>16.16919999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.53980000000001</v>
+        <v>15.4873</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.83120000000001</v>
+        <v>16.94970000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.66669999999999</v>
+        <v>16.70040000000002</v>
       </c>
     </row>
   </sheetData>
